--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Icam4</t>
+  </si>
+  <si>
+    <t>Itgav</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Icam4</t>
-  </si>
-  <si>
-    <t>Itgav</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H2">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I2">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J2">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>15.7189723121725</v>
+        <v>21.244705498215</v>
       </c>
       <c r="R2">
-        <v>62.87588924869</v>
+        <v>84.97882199286001</v>
       </c>
       <c r="S2">
-        <v>0.01813022836002314</v>
+        <v>0.007309243476531396</v>
       </c>
       <c r="T2">
-        <v>0.009629993187748155</v>
+        <v>0.003584752233280963</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H3">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I3">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J3">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>61.0908752275495</v>
+        <v>60.1536026006725</v>
       </c>
       <c r="R3">
-        <v>366.545251365297</v>
+        <v>360.921615604035</v>
       </c>
       <c r="S3">
-        <v>0.0704620821636955</v>
+        <v>0.02069585419462602</v>
       </c>
       <c r="T3">
-        <v>0.05613961592953198</v>
+        <v>0.0152251412438342</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H4">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I4">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J4">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>84.0813451587655</v>
+        <v>61.47559319344249</v>
       </c>
       <c r="R4">
-        <v>504.488070952593</v>
+        <v>368.853559160655</v>
       </c>
       <c r="S4">
-        <v>0.09697924000832199</v>
+        <v>0.02115068521673889</v>
       </c>
       <c r="T4">
-        <v>0.07726676703303879</v>
+        <v>0.01555974287412323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H5">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I5">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J5">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>26.959832080697</v>
+        <v>32.805387649305</v>
       </c>
       <c r="R5">
-        <v>107.839328322788</v>
+        <v>131.22155059722</v>
       </c>
       <c r="S5">
-        <v>0.03109541148516469</v>
+        <v>0.01128669755817104</v>
       </c>
       <c r="T5">
-        <v>0.01651653773058043</v>
+        <v>0.005535458547513149</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H6">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I6">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J6">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>12.296734593058</v>
+        <v>32.49070847662417</v>
       </c>
       <c r="R6">
-        <v>73.780407558348</v>
+        <v>194.944250859745</v>
       </c>
       <c r="S6">
-        <v>0.01418302684343396</v>
+        <v>0.01117843215104121</v>
       </c>
       <c r="T6">
-        <v>0.01130011568291222</v>
+        <v>0.008223541139384954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H7">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I7">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J7">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>83.20734807406318</v>
+        <v>77.28918458988416</v>
       </c>
       <c r="R7">
-        <v>499.244088444379</v>
+        <v>463.7351075393049</v>
       </c>
       <c r="S7">
-        <v>0.09597117367822375</v>
+        <v>0.02659135323469216</v>
       </c>
       <c r="T7">
-        <v>0.07646360517824526</v>
+        <v>0.01956223237057799</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.534717</v>
       </c>
       <c r="I8">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J8">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>2.671698340185</v>
+        <v>3.667150143738001</v>
       </c>
       <c r="R8">
-        <v>16.03019004111</v>
+        <v>22.002900862428</v>
       </c>
       <c r="S8">
-        <v>0.003081531034897168</v>
+        <v>0.001261683447098396</v>
       </c>
       <c r="T8">
-        <v>0.002455164018175916</v>
+        <v>0.0009281718215848598</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.534717</v>
       </c>
       <c r="I9">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J9">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>10.383400816827</v>
@@ -1013,10 +1013,10 @@
         <v>93.450607351443</v>
       </c>
       <c r="S9">
-        <v>0.01197619184155851</v>
+        <v>0.00357241029728467</v>
       </c>
       <c r="T9">
-        <v>0.01431277907857301</v>
+        <v>0.003942126585759149</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.534717</v>
       </c>
       <c r="I10">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J10">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>14.291009987163</v>
+        <v>10.611595930791</v>
       </c>
       <c r="R10">
-        <v>128.619089884467</v>
+        <v>95.50436337711899</v>
       </c>
       <c r="S10">
-        <v>0.01648321973071959</v>
+        <v>0.003650920853632832</v>
       </c>
       <c r="T10">
-        <v>0.01969914023009369</v>
+        <v>0.004028762365439348</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>0.534717</v>
       </c>
       <c r="I11">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J11">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>4.582267669362</v>
+        <v>5.662694737926</v>
       </c>
       <c r="R11">
-        <v>27.493606016172</v>
+        <v>33.976168427556</v>
       </c>
       <c r="S11">
-        <v>0.005285177529573627</v>
+        <v>0.001948250804241646</v>
       </c>
       <c r="T11">
-        <v>0.004210886586353676</v>
+        <v>0.001433252930468311</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>0.534717</v>
       </c>
       <c r="I12">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J12">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>2.090032652868</v>
+        <v>5.608376462089001</v>
       </c>
       <c r="R12">
-        <v>18.810293875812</v>
+        <v>50.475388158801</v>
       </c>
       <c r="S12">
-        <v>0.002410639100563738</v>
+        <v>0.001929562594920439</v>
       </c>
       <c r="T12">
-        <v>0.002880961272247684</v>
+        <v>0.002129257104119286</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>0.534717</v>
       </c>
       <c r="I13">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J13">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>14.142459782089</v>
+        <v>13.341255514321</v>
       </c>
       <c r="R13">
-        <v>127.282138038801</v>
+        <v>120.071299628889</v>
       </c>
       <c r="S13">
-        <v>0.01631188224838085</v>
+        <v>0.004590060560970476</v>
       </c>
       <c r="T13">
-        <v>0.01949437434415628</v>
+        <v>0.005065095625046112</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H14">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I14">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J14">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>4.513512715366667</v>
+        <v>15.804667733394</v>
       </c>
       <c r="R14">
-        <v>27.0810762922</v>
+        <v>94.828006400364</v>
       </c>
       <c r="S14">
-        <v>0.005205875715685135</v>
+        <v>0.005437597830610664</v>
       </c>
       <c r="T14">
-        <v>0.004147704045652246</v>
+        <v>0.004000230878110407</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H15">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I15">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J15">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>17.54150568220667</v>
+        <v>44.75033566128433</v>
       </c>
       <c r="R15">
-        <v>157.87355113986</v>
+        <v>402.753020951559</v>
       </c>
       <c r="S15">
-        <v>0.02023233437155255</v>
+        <v>0.01539635835537072</v>
       </c>
       <c r="T15">
-        <v>0.02417971722020834</v>
+        <v>0.01698976000677042</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H16">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I16">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J16">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>24.14294096092667</v>
+        <v>45.73380997054966</v>
       </c>
       <c r="R16">
-        <v>217.28646864834</v>
+        <v>411.604289734947</v>
       </c>
       <c r="S16">
-        <v>0.02784641541516023</v>
+        <v>0.01573472280951379</v>
       </c>
       <c r="T16">
-        <v>0.03327932595270552</v>
+        <v>0.01736314251307636</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,14 +1458,14 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H17">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I17">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J17">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>7.741189594573334</v>
+        <v>24.405057142638</v>
       </c>
       <c r="R17">
-        <v>46.44713756744</v>
+        <v>146.430342855828</v>
       </c>
       <c r="S17">
-        <v>0.008928671184131119</v>
+        <v>0.008396562839112578</v>
       </c>
       <c r="T17">
-        <v>0.007113785963260436</v>
+        <v>0.006177027243524633</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H18">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I18">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J18">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>3.530858560026667</v>
+        <v>24.17095647377922</v>
       </c>
       <c r="R18">
-        <v>31.77772704024</v>
+        <v>217.538608264013</v>
       </c>
       <c r="S18">
-        <v>0.004072484557444868</v>
+        <v>0.008316020475894061</v>
       </c>
       <c r="T18">
-        <v>0.004867037247127402</v>
+        <v>0.009176663002751138</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H19">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I19">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J19">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>23.89198327255778</v>
+        <v>57.49808496666188</v>
       </c>
       <c r="R19">
-        <v>215.02784945302</v>
+        <v>517.4827646999569</v>
       </c>
       <c r="S19">
-        <v>0.02755696136508164</v>
+        <v>0.01978222303391932</v>
       </c>
       <c r="T19">
-        <v>0.03293339863899995</v>
+        <v>0.02182952708615378</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H20">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I20">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J20">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>1.4545203686475</v>
+        <v>167.050221994674</v>
       </c>
       <c r="R20">
-        <v>5.81808147459</v>
+        <v>1002.301331968044</v>
       </c>
       <c r="S20">
-        <v>0.001677640618875774</v>
+        <v>0.05747364892727192</v>
       </c>
       <c r="T20">
-        <v>0.0008910901402039856</v>
+        <v>0.04228114551287634</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H21">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I21">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J21">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>5.6529091464945</v>
+        <v>472.996562323071</v>
       </c>
       <c r="R21">
-        <v>33.917454878967</v>
+        <v>4256.969060907639</v>
       </c>
       <c r="S21">
-        <v>0.006520053072747222</v>
+        <v>0.1627345240381027</v>
       </c>
       <c r="T21">
-        <v>0.005194755308164691</v>
+        <v>0.1795762637116669</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H22">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I22">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J22">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>7.780281479470499</v>
+        <v>483.3915674228429</v>
       </c>
       <c r="R22">
-        <v>46.681688876823</v>
+        <v>4350.524106805587</v>
       </c>
       <c r="S22">
-        <v>0.008973759678857999</v>
+        <v>0.1663109267903274</v>
       </c>
       <c r="T22">
-        <v>0.00714970955079972</v>
+        <v>0.1835227959399619</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H23">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I23">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J23">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>2.494668488367</v>
+        <v>257.953554117198</v>
       </c>
       <c r="R23">
-        <v>9.978673953468</v>
+        <v>1547.721324703188</v>
       </c>
       <c r="S23">
-        <v>0.002877345190157436</v>
+        <v>0.08874895125459067</v>
       </c>
       <c r="T23">
-        <v>0.001528321322257226</v>
+        <v>0.06528917846957785</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H24">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I24">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J24">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>1.137851163438</v>
+        <v>255.479185825397</v>
       </c>
       <c r="R24">
-        <v>6.827106980628</v>
+        <v>2299.312672428573</v>
       </c>
       <c r="S24">
-        <v>0.001312395048681002</v>
+        <v>0.08789764454681344</v>
       </c>
       <c r="T24">
-        <v>0.001045631234819399</v>
+        <v>0.09699435746699438</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H25">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I25">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J25">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>7.699408090511501</v>
+        <v>607.7361460535329</v>
       </c>
       <c r="R25">
-        <v>46.196448543069</v>
+        <v>5469.625314481797</v>
       </c>
       <c r="S25">
-        <v>0.008880480488529494</v>
+        <v>0.2090916939925266</v>
       </c>
       <c r="T25">
-        <v>0.007075390743315515</v>
+        <v>0.2307310351153859</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H26">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I26">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J26">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N26">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O26">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P26">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q26">
-        <v>9.056729454791668</v>
+        <v>8.547432072936001</v>
       </c>
       <c r="R26">
-        <v>54.34037672875001</v>
+        <v>51.28459243761601</v>
       </c>
       <c r="S26">
-        <v>0.01044601198789356</v>
+        <v>0.002940745030589006</v>
       </c>
       <c r="T26">
-        <v>0.008322704680131958</v>
+        <v>0.002163392630802703</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H27">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I27">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J27">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P27">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q27">
-        <v>35.19845433304167</v>
+        <v>24.20173968591067</v>
       </c>
       <c r="R27">
-        <v>316.786088997375</v>
+        <v>217.815657173196</v>
       </c>
       <c r="S27">
-        <v>0.0405978204111801</v>
+        <v>0.008326611443722603</v>
       </c>
       <c r="T27">
-        <v>0.04851856435703073</v>
+        <v>0.009188350052213948</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H28">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I28">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J28">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N28">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O28">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P28">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q28">
-        <v>48.44476980904167</v>
+        <v>24.73361925438533</v>
       </c>
       <c r="R28">
-        <v>436.002928281375</v>
+        <v>222.602573289468</v>
       </c>
       <c r="S28">
-        <v>0.05587609177264906</v>
+        <v>0.008509604673094525</v>
       </c>
       <c r="T28">
-        <v>0.06677766755044928</v>
+        <v>0.009390281637471467</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,14 +2202,14 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
       <c r="E29">
         <v>3</v>
       </c>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H29">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I29">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J29">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N29">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O29">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P29">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q29">
-        <v>15.53332498158333</v>
+        <v>13.198668373272</v>
       </c>
       <c r="R29">
-        <v>93.1999498895</v>
+        <v>79.192010239632</v>
       </c>
       <c r="S29">
-        <v>0.0179161031340754</v>
+        <v>0.004541003437978715</v>
       </c>
       <c r="T29">
-        <v>0.0142743886926904</v>
+        <v>0.003340640984507668</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H30">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I30">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J30">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N30">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O30">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P30">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q30">
-        <v>7.084954167166666</v>
+        <v>13.07206276541911</v>
       </c>
       <c r="R30">
-        <v>63.7645875045</v>
+        <v>117.648564888772</v>
       </c>
       <c r="S30">
-        <v>0.008171770674318089</v>
+        <v>0.004497444763401241</v>
       </c>
       <c r="T30">
-        <v>0.009766105110007646</v>
+        <v>0.004962894822933187</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H31">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I31">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J31">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N31">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O31">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P31">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q31">
-        <v>47.94120284656945</v>
+        <v>31.09593848265644</v>
       </c>
       <c r="R31">
-        <v>431.4708256191251</v>
+        <v>279.863446343908</v>
       </c>
       <c r="S31">
-        <v>0.05529527873711018</v>
+        <v>0.010698561367211</v>
       </c>
       <c r="T31">
-        <v>0.06608353632964033</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H32">
-        <v>2.938298</v>
-      </c>
-      <c r="I32">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J32">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>14.989415</v>
-      </c>
-      <c r="N32">
-        <v>29.97883</v>
-      </c>
-      <c r="O32">
-        <v>0.05547446260572933</v>
-      </c>
-      <c r="P32">
-        <v>0.03893791130463959</v>
-      </c>
-      <c r="Q32">
-        <v>14.68112270522334</v>
-      </c>
-      <c r="R32">
-        <v>88.08673623134001</v>
-      </c>
-      <c r="S32">
-        <v>0.01693317488835455</v>
-      </c>
-      <c r="T32">
-        <v>0.01349125523272733</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H33">
-        <v>2.938298</v>
-      </c>
-      <c r="I33">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J33">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>58.255493</v>
-      </c>
-      <c r="N33">
-        <v>174.766479</v>
-      </c>
-      <c r="O33">
-        <v>0.2155982850569436</v>
-      </c>
-      <c r="P33">
-        <v>0.2269949046819425</v>
-      </c>
-      <c r="Q33">
-        <v>57.05733285697134</v>
-      </c>
-      <c r="R33">
-        <v>513.515995712742</v>
-      </c>
-      <c r="S33">
-        <v>0.06580980319620974</v>
-      </c>
-      <c r="T33">
-        <v>0.07864947278843372</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H34">
-        <v>2.938298</v>
-      </c>
-      <c r="I34">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J34">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>80.178917</v>
-      </c>
-      <c r="N34">
-        <v>240.536751</v>
-      </c>
-      <c r="O34">
-        <v>0.2967348847759819</v>
-      </c>
-      <c r="P34">
-        <v>0.3124204205415681</v>
-      </c>
-      <c r="Q34">
-        <v>78.52985048775534</v>
-      </c>
-      <c r="R34">
-        <v>706.7686543897979</v>
-      </c>
-      <c r="S34">
-        <v>0.09057615817027306</v>
-      </c>
-      <c r="T34">
-        <v>0.1082478102244811</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H35">
-        <v>2.938298</v>
-      </c>
-      <c r="I35">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J35">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>25.708558</v>
-      </c>
-      <c r="N35">
-        <v>51.417116</v>
-      </c>
-      <c r="O35">
-        <v>0.09514503664207198</v>
-      </c>
-      <c r="P35">
-        <v>0.0667829632560165</v>
-      </c>
-      <c r="Q35">
-        <v>25.17980151809467</v>
-      </c>
-      <c r="R35">
-        <v>151.078809108568</v>
-      </c>
-      <c r="S35">
-        <v>0.02904232811896972</v>
-      </c>
-      <c r="T35">
-        <v>0.02313904296087432</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H36">
-        <v>2.938298</v>
-      </c>
-      <c r="I36">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J36">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>11.726012</v>
-      </c>
-      <c r="N36">
-        <v>35.178036</v>
-      </c>
-      <c r="O36">
-        <v>0.04339690469630291</v>
-      </c>
-      <c r="P36">
-        <v>0.04569088405516221</v>
-      </c>
-      <c r="Q36">
-        <v>11.48483920252533</v>
-      </c>
-      <c r="R36">
-        <v>103.363552822728</v>
-      </c>
-      <c r="S36">
-        <v>0.01324658847186125</v>
-      </c>
-      <c r="T36">
-        <v>0.01583103350804786</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H37">
-        <v>2.938298</v>
-      </c>
-      <c r="I37">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J37">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>79.34548433333335</v>
-      </c>
-      <c r="N37">
-        <v>238.036453</v>
-      </c>
-      <c r="O37">
-        <v>0.2936504262229702</v>
-      </c>
-      <c r="P37">
-        <v>0.3091729161606711</v>
-      </c>
-      <c r="Q37">
-        <v>77.71355930855491</v>
-      </c>
-      <c r="R37">
-        <v>699.4220337769941</v>
-      </c>
-      <c r="S37">
-        <v>0.08963464970564425</v>
-      </c>
-      <c r="T37">
-        <v>0.1071226109263138</v>
+        <v>0.01180577808408928</v>
       </c>
     </row>
   </sheetData>
